--- a/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6291,4 +6292,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>124</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6300,7 +6301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6311,17 +6312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6331,14 +6352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.46</v>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6347,13 +6390,5663 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4989</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7064</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5954</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3999</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0458</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0074</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0061</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城品牌优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9797</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9459</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9265</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9064</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8675</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8579</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8338</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>48.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8329</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8278</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8197</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7982</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>46.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7511</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6794</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6792</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6554</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4755</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4134</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000176</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3477</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3467</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>59.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>65.98</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>148</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>124</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>27</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11977,7 +11978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11988,17 +11989,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12008,14 +12029,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.84</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -12024,14 +12067,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>124</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.46</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -12040,13 +12105,4841 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9862</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9862</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8863</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7475</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2650</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>57.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1927</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0910</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0504</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城品牌优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0072</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9788</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9756</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8559</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8546</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8489</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7954</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7781</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7460</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7445</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7162</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7157</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6111</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6064</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6058</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6056</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>41.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5251</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4286</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4168</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>58.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3185</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012033</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发睿盛混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012312</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>61.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012313</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>61.45</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012034</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>广发睿盛混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>127</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>148</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>124</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>27</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16854,7 +16855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16865,17 +16866,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16885,14 +16906,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>127</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.56</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -16901,14 +16944,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>148</v>
-      </c>
-      <c r="D3" t="n">
-        <v>61.84</v>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -16917,14 +16982,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>124</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.46</v>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5691</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -16933,13 +17020,8309 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015116</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0286</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7506</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5559</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5501</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城品牌优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3680</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3572</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3387</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1954</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1808</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0553</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0286</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9681</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9559</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9340</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8916</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8677</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8392</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8368</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7210</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7190</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>43.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7156</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7131</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6714</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6714</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>41.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6557</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6378</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5569</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5569</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5446</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5166</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发消费领先混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5155</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5102</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5097</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4828</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4754</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4143</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4081</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3825</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3632</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013387</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城价值领航混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012312</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012033</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发睿盛混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011755</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012313</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013388</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长城价值领航混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>65.81</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>000812</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富国收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>64.15</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>012034</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>广发睿盛混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>012615</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>015040</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>160144</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>64.15</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>015194</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>167003</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>014953</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010228</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>010229</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>平安鼎弘混合（LOF）D</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>015195</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票D</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>219</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>127</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>148</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>124</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="D2" t="n">
-        <v>67.17</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="D3" t="n">
-        <v>44.56</v>
+        <v>67.17</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D4" t="n">
-        <v>61.84</v>
+        <v>44.56</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D5" t="n">
-        <v>24.46</v>
+        <v>61.84</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>124</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.07</v>
       </c>
     </row>
@@ -566,6 +583,4958 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0414</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城品牌优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8710</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8150</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7691</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6657</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012389</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳品质回报6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6562</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5969</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5572</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4741</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4364</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3633</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城消费30股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发消费领先混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013387</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城价值领航混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信澳红利回报混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信澳蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013078</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012312</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012033</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发睿盛混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011755</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012313</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013388</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长城价值领航混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城消费30股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015040</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>24.71</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012691</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发消费领先混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012034</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发睿盛混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013079</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>方正富邦策略轮动混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015085</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>53.47</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>32.68</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>24.71</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015116</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015668</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>014953</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8931,7 +13900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13807,7 +18776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19483,7 +24452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24251,7 +29220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600702-舍得酒业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="D2" t="n">
-        <v>27.5</v>
+        <v>75.16</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="D3" t="n">
-        <v>67.17</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="D4" t="n">
-        <v>44.56</v>
+        <v>67.17</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D5" t="n">
-        <v>61.84</v>
+        <v>44.56</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D6" t="n">
-        <v>24.46</v>
+        <v>61.84</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>124</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.07</v>
       </c>
     </row>
@@ -583,6 +600,7460 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H196"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.9223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8571</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0691</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9887</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9873</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3295</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3086</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2944</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2106</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>61.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1231</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0445</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0356</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9871</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9390</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9301</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9061</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>200008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城品牌优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8528</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8152</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7798</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6802</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6412</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6352</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5074</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4837</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发消费领先混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4790</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012389</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信澳品质回报6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4779</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3475</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013387</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城价值领航混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城消费30股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015195</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票D</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>信澳红利回报混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信澳蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015963</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004982</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>新华安享多裕定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>45.81</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012312</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015635</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013755</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011681</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>016059</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014356</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012691</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发消费领先混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013388</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长城价值领航混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012313</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>39.27</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>016061</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015964</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014357</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>012772</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>信澳精华配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015040</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长城消费30股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>159862</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>银华中证食品ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>013756</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>015085</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>015636</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>80.92</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011682</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>39.27</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>015194</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>015116</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>016264</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>014953</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5534,7 +13005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13900,7 +21371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18776,7 +26247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24452,7 +31923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29220,7 +36691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
